--- a/Data/Task List.xlsx
+++ b/Data/Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakim\OneDrive\Desktop\lsppacer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B593F6C-93D0-4992-8BE1-3D67F3A572E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6956113C-5FC5-4FBB-BCA5-7D362C7802B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{92D2A530-8EE2-486F-A148-CD3A271C5DDE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Hakim</t>
+  </si>
+  <si>
+    <t>proses API nyambung ke dikti untuk memastikan nomor ijasah certificant valid</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -171,11 +177,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,11 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F16814-9471-4E6A-A43D-40B87505BD52}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,28 +514,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -561,7 +567,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,6 +635,23 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
